--- a/Code/Results/Cases/Case_3_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_183/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9850350842041203</v>
+        <v>1.019102109518226</v>
       </c>
       <c r="D2">
-        <v>1.006493338699001</v>
+        <v>1.024626414001997</v>
       </c>
       <c r="E2">
-        <v>0.9935729121705078</v>
+        <v>1.020284784967306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039811778957977</v>
+        <v>1.027638643975003</v>
       </c>
       <c r="J2">
-        <v>1.007672795896532</v>
+        <v>1.024306778841953</v>
       </c>
       <c r="K2">
-        <v>1.017862946206405</v>
+        <v>1.027454363206155</v>
       </c>
       <c r="L2">
-        <v>1.005122518736831</v>
+        <v>1.023125524464673</v>
       </c>
       <c r="N2">
-        <v>1.006585220317111</v>
+        <v>1.012186590035529</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9906359773886897</v>
+        <v>1.020229525089141</v>
       </c>
       <c r="D3">
-        <v>1.010704303952218</v>
+        <v>1.025469254231171</v>
       </c>
       <c r="E3">
-        <v>0.9980911936859409</v>
+        <v>1.021244341889865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041446686420086</v>
+        <v>1.027858840210695</v>
       </c>
       <c r="J3">
-        <v>1.011385211510259</v>
+        <v>1.025069872959936</v>
       </c>
       <c r="K3">
-        <v>1.021202029065572</v>
+        <v>1.02810423740301</v>
       </c>
       <c r="L3">
-        <v>1.008748556448882</v>
+        <v>1.023890866851306</v>
       </c>
       <c r="N3">
-        <v>1.007816624609711</v>
+        <v>1.012438781994684</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9941669496302584</v>
+        <v>1.020958311289886</v>
       </c>
       <c r="D4">
-        <v>1.013358149728327</v>
+        <v>1.026013471865299</v>
       </c>
       <c r="E4">
-        <v>1.000946408404321</v>
+        <v>1.02186503089431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042460399073308</v>
+        <v>1.027999021287577</v>
       </c>
       <c r="J4">
-        <v>1.013721051597335</v>
+        <v>1.025562425080397</v>
       </c>
       <c r="K4">
-        <v>1.023297983298689</v>
+        <v>1.028522956605283</v>
       </c>
       <c r="L4">
-        <v>1.011033424515558</v>
+        <v>1.024385275011612</v>
       </c>
       <c r="N4">
-        <v>1.008591344739813</v>
+        <v>1.012601529762549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9956300245884518</v>
+        <v>1.021264520241685</v>
       </c>
       <c r="D5">
-        <v>1.014457483507142</v>
+        <v>1.026241984146324</v>
       </c>
       <c r="E5">
-        <v>1.002131036092872</v>
+        <v>1.022125918980891</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042876286295058</v>
+        <v>1.028057402484114</v>
       </c>
       <c r="J5">
-        <v>1.01468776444218</v>
+        <v>1.025769202150844</v>
       </c>
       <c r="K5">
-        <v>1.024164190187918</v>
+        <v>1.028698557038836</v>
       </c>
       <c r="L5">
-        <v>1.011979852850513</v>
+        <v>1.024592928358285</v>
       </c>
       <c r="N5">
-        <v>1.008911950045394</v>
+        <v>1.012669844353428</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9958744563788885</v>
+        <v>1.021315923978235</v>
       </c>
       <c r="D6">
-        <v>1.014641125915805</v>
+        <v>1.026280336131621</v>
       </c>
       <c r="E6">
-        <v>1.002329038181513</v>
+        <v>1.022169720341388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042945521248335</v>
+        <v>1.028067172632381</v>
       </c>
       <c r="J6">
-        <v>1.014849201030201</v>
+        <v>1.025803903829072</v>
       </c>
       <c r="K6">
-        <v>1.024308769728238</v>
+        <v>1.028728015962949</v>
       </c>
       <c r="L6">
-        <v>1.012137949736293</v>
+        <v>1.024627782794602</v>
       </c>
       <c r="N6">
-        <v>1.00896548833129</v>
+        <v>1.012681308545096</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9941865819574992</v>
+        <v>1.020962403546163</v>
       </c>
       <c r="D7">
-        <v>1.013372902482133</v>
+        <v>1.026016526345293</v>
       </c>
       <c r="E7">
-        <v>1.000962298304614</v>
+        <v>1.021868517088079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042465996180106</v>
+        <v>1.027999803544985</v>
       </c>
       <c r="J7">
-        <v>1.01373402810361</v>
+        <v>1.025565189191983</v>
       </c>
       <c r="K7">
-        <v>1.023309615573636</v>
+        <v>1.028525304672949</v>
       </c>
       <c r="L7">
-        <v>1.01104612552649</v>
+        <v>1.024388050454918</v>
       </c>
       <c r="N7">
-        <v>1.008595648417995</v>
+        <v>1.012602442996212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9869478253893184</v>
+        <v>1.019483276215139</v>
       </c>
       <c r="D8">
-        <v>1.00793153799539</v>
+        <v>1.024911495253439</v>
       </c>
       <c r="E8">
-        <v>0.9951144722818176</v>
+        <v>1.020609115101198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040373638608435</v>
+        <v>1.027713536590511</v>
       </c>
       <c r="J8">
-        <v>1.008941539278456</v>
+        <v>1.024564923105443</v>
       </c>
       <c r="K8">
-        <v>1.019005132804395</v>
+        <v>1.027674362520364</v>
       </c>
       <c r="L8">
-        <v>1.006361030371879</v>
+        <v>1.023384345417709</v>
       </c>
       <c r="N8">
-        <v>1.007006075234017</v>
+        <v>1.012271910106137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9734318097503095</v>
+        <v>1.016871237349404</v>
       </c>
       <c r="D9">
-        <v>0.9977689841365336</v>
+        <v>1.022955430374831</v>
       </c>
       <c r="E9">
-        <v>0.9842531944633192</v>
+        <v>1.018388274543187</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03633367911188</v>
+        <v>1.027191483642956</v>
       </c>
       <c r="J9">
-        <v>0.9999589501271728</v>
+        <v>1.022792956422812</v>
       </c>
       <c r="K9">
-        <v>1.010898362022006</v>
+        <v>1.026161156772768</v>
       </c>
       <c r="L9">
-        <v>0.9976070258899705</v>
+        <v>1.021609395075031</v>
       </c>
       <c r="N9">
-        <v>1.004026261453617</v>
+        <v>1.011686114059901</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.963838429634406</v>
+        <v>1.015126007925561</v>
       </c>
       <c r="D10">
-        <v>0.9905607835537867</v>
+        <v>1.021645422496597</v>
       </c>
       <c r="E10">
-        <v>0.9765883067808683</v>
+        <v>1.016906602288602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033380787391605</v>
+        <v>1.026831611154439</v>
       </c>
       <c r="J10">
-        <v>0.9935640542955056</v>
+        <v>1.021605313418894</v>
       </c>
       <c r="K10">
-        <v>1.00510258337421</v>
+        <v>1.025143104676516</v>
       </c>
       <c r="L10">
-        <v>0.9913935359166017</v>
+        <v>1.020421835728536</v>
       </c>
       <c r="N10">
-        <v>1.001904760348487</v>
+        <v>1.011293318474671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9595282189188452</v>
+        <v>1.014369365908703</v>
       </c>
       <c r="D11">
-        <v>0.987325022972829</v>
+        <v>1.021076756583766</v>
       </c>
       <c r="E11">
-        <v>0.9731562999045605</v>
+        <v>1.016264750864665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032034991488869</v>
+        <v>1.026672975108853</v>
       </c>
       <c r="J11">
-        <v>0.9906872808923969</v>
+        <v>1.021089540765051</v>
       </c>
       <c r="K11">
-        <v>1.0024899958541</v>
+        <v>1.024700079286251</v>
       </c>
       <c r="L11">
-        <v>0.9886028479767028</v>
+        <v>1.019906592006171</v>
       </c>
       <c r="N11">
-        <v>1.000950416779687</v>
+        <v>1.011122693996241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9579020378367177</v>
+        <v>1.014088171326678</v>
       </c>
       <c r="D12">
-        <v>0.9861047896853375</v>
+        <v>1.020865314385518</v>
       </c>
       <c r="E12">
-        <v>0.9718633349804564</v>
+        <v>1.016026296214914</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031524480347047</v>
+        <v>1.026613628535422</v>
       </c>
       <c r="J12">
-        <v>0.9896014607602399</v>
+        <v>1.020897731320956</v>
       </c>
       <c r="K12">
-        <v>1.001503131237547</v>
+        <v>1.02453518859487</v>
       </c>
       <c r="L12">
-        <v>0.987550198540351</v>
+        <v>1.019715053158203</v>
       </c>
       <c r="N12">
-        <v>1.000590213702089</v>
+        <v>1.011059234873245</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9582520277731628</v>
+        <v>1.014148495068179</v>
       </c>
       <c r="D13">
-        <v>0.9863673823170797</v>
+        <v>1.020910679162257</v>
       </c>
       <c r="E13">
-        <v>0.9721415224971421</v>
+        <v>1.016077447480054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03163447649045</v>
+        <v>1.026626377678437</v>
       </c>
       <c r="J13">
-        <v>0.9898351721826659</v>
+        <v>1.020938885452387</v>
       </c>
       <c r="K13">
-        <v>1.001715577148806</v>
+        <v>1.024570573209667</v>
       </c>
       <c r="L13">
-        <v>0.9877767395951204</v>
+        <v>1.01975614588974</v>
       </c>
       <c r="N13">
-        <v>1.000667743214404</v>
+        <v>1.011072850767039</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9593943223567744</v>
+        <v>1.014346125226402</v>
       </c>
       <c r="D14">
-        <v>0.9872245388177138</v>
+        <v>1.021059283081168</v>
       </c>
       <c r="E14">
-        <v>0.9730498007903582</v>
+        <v>1.016245040999359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031993012424394</v>
+        <v>1.026668078113452</v>
       </c>
       <c r="J14">
-        <v>0.9905978852905966</v>
+        <v>1.021073690403167</v>
       </c>
       <c r="K14">
-        <v>1.002408762441758</v>
+        <v>1.024686456132337</v>
       </c>
       <c r="L14">
-        <v>0.9885161695176939</v>
+        <v>1.019890762499063</v>
       </c>
       <c r="N14">
-        <v>1.00092076106307</v>
+        <v>1.011117450111343</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9600947376414278</v>
+        <v>1.014467872544728</v>
       </c>
       <c r="D15">
-        <v>0.9877501974543268</v>
+        <v>1.021150814442062</v>
       </c>
       <c r="E15">
-        <v>0.9736069768626489</v>
+        <v>1.016348295249737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032212493921149</v>
+        <v>1.026693715195065</v>
       </c>
       <c r="J15">
-        <v>0.9910654973056779</v>
+        <v>1.021156717876356</v>
       </c>
       <c r="K15">
-        <v>1.002833648871862</v>
+        <v>1.024757811505323</v>
       </c>
       <c r="L15">
-        <v>0.9889695962895483</v>
+        <v>1.019973683754602</v>
       </c>
       <c r="N15">
-        <v>1.001075885033122</v>
+        <v>1.011144918419505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9641210508921656</v>
+        <v>1.015176203668229</v>
       </c>
       <c r="D16">
-        <v>0.9907730237343072</v>
+        <v>1.021683132944284</v>
       </c>
       <c r="E16">
-        <v>0.9768135976205238</v>
+        <v>1.016949193942022</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033468644007334</v>
+        <v>1.026842080119871</v>
       </c>
       <c r="J16">
-        <v>0.9937526171389659</v>
+        <v>1.021639511551934</v>
       </c>
       <c r="K16">
-        <v>1.005273722530001</v>
+        <v>1.025172460374958</v>
       </c>
       <c r="L16">
-        <v>0.9915765495121965</v>
+        <v>1.020456009147723</v>
       </c>
       <c r="N16">
-        <v>1.001967315220185</v>
+        <v>1.011304630831031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9666036737394085</v>
+        <v>1.015620266421239</v>
       </c>
       <c r="D17">
-        <v>0.9926377355656129</v>
+        <v>1.02201666076676</v>
       </c>
       <c r="E17">
-        <v>0.9787939587139861</v>
+        <v>1.017326046980078</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034238250311296</v>
+        <v>1.026934393447652</v>
       </c>
       <c r="J17">
-        <v>0.9954086060646422</v>
+        <v>1.021941948964639</v>
       </c>
       <c r="K17">
-        <v>1.006776095215899</v>
+        <v>1.02543196874615</v>
       </c>
       <c r="L17">
-        <v>0.9931843117042725</v>
+        <v>1.020758284803533</v>
       </c>
       <c r="N17">
-        <v>1.002516685240707</v>
+        <v>1.011404669080987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9680367971076376</v>
+        <v>1.015879189549798</v>
       </c>
       <c r="D18">
-        <v>0.9937144175708111</v>
+        <v>1.022211064551961</v>
       </c>
       <c r="E18">
-        <v>0.9799382464722296</v>
+        <v>1.017545832252202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03468070570577</v>
+        <v>1.026987967239525</v>
       </c>
       <c r="J18">
-        <v>0.9963641985109718</v>
+        <v>1.022118209434547</v>
       </c>
       <c r="K18">
-        <v>1.007642537635854</v>
+        <v>1.025583123150602</v>
       </c>
       <c r="L18">
-        <v>0.9941124968213941</v>
+        <v>1.020934498455427</v>
       </c>
       <c r="N18">
-        <v>1.002833702468241</v>
+        <v>1.011462967480086</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.968522968783368</v>
+        <v>1.01596746024019</v>
       </c>
       <c r="D19">
-        <v>0.9940797093305281</v>
+        <v>1.022277327934847</v>
       </c>
       <c r="E19">
-        <v>0.9803266172075066</v>
+        <v>1.017620768839136</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034830494024525</v>
+        <v>1.027006188552247</v>
       </c>
       <c r="J19">
-        <v>0.9966883116410412</v>
+        <v>1.022178284934623</v>
       </c>
       <c r="K19">
-        <v>1.007936326388869</v>
+        <v>1.025634626877875</v>
       </c>
       <c r="L19">
-        <v>0.9944273855142545</v>
+        <v>1.020994566050902</v>
       </c>
       <c r="N19">
-        <v>1.002941227005338</v>
+        <v>1.01148283687796</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9663388698102267</v>
+        <v>1.015572632133119</v>
       </c>
       <c r="D20">
-        <v>0.9924388123405649</v>
+        <v>1.021980890597651</v>
       </c>
       <c r="E20">
-        <v>0.978582612387759</v>
+        <v>1.017285616985508</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034156348935767</v>
+        <v>1.026924517133547</v>
       </c>
       <c r="J20">
-        <v>0.9952320087694928</v>
+        <v>1.021909515415958</v>
       </c>
       <c r="K20">
-        <v>1.006615932010323</v>
+        <v>1.025404147930662</v>
       </c>
       <c r="L20">
-        <v>0.9930128135171059</v>
+        <v>1.020725863692647</v>
       </c>
       <c r="N20">
-        <v>1.002458099317479</v>
+        <v>1.011393941326604</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9590586546383609</v>
+        <v>1.014287932062354</v>
       </c>
       <c r="D21">
-        <v>0.9869726430218383</v>
+        <v>1.021015528851882</v>
       </c>
       <c r="E21">
-        <v>0.9727828469375286</v>
+        <v>1.016195690063099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031887730279601</v>
+        <v>1.026655810026954</v>
       </c>
       <c r="J21">
-        <v>0.9903737708313151</v>
+        <v>1.021034000020107</v>
       </c>
       <c r="K21">
-        <v>1.002205098479246</v>
+        <v>1.02465234065046</v>
       </c>
       <c r="L21">
-        <v>0.988298877860305</v>
+        <v>1.019851125530745</v>
       </c>
       <c r="N21">
-        <v>1.000846414428866</v>
+        <v>1.011104318970547</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9543346556301354</v>
+        <v>1.013479355771098</v>
       </c>
       <c r="D22">
-        <v>0.983429174332271</v>
+        <v>1.020407327162554</v>
       </c>
       <c r="E22">
-        <v>0.9690305401349943</v>
+        <v>1.015510163746761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03039959949988</v>
+        <v>1.026484421113991</v>
       </c>
       <c r="J22">
-        <v>0.9872187433472996</v>
+        <v>1.020482206189651</v>
       </c>
       <c r="K22">
-        <v>0.9993362084347034</v>
+        <v>1.024177732309568</v>
       </c>
       <c r="L22">
-        <v>0.9852415272080057</v>
+        <v>1.019300249309252</v>
       </c>
       <c r="N22">
-        <v>0.9997998058359525</v>
+        <v>1.010921749688158</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9568534520184545</v>
+        <v>1.013908077089011</v>
       </c>
       <c r="D23">
-        <v>0.9853181463759332</v>
+        <v>1.020729864118113</v>
       </c>
       <c r="E23">
-        <v>0.9710301579035578</v>
+        <v>1.015873597791345</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031194530687974</v>
+        <v>1.026575509131655</v>
       </c>
       <c r="J23">
-        <v>0.9889011911652474</v>
+        <v>1.020774848188867</v>
       </c>
       <c r="K23">
-        <v>1.000866471395574</v>
+        <v>1.02442951307544</v>
       </c>
       <c r="L23">
-        <v>0.9868715134054651</v>
+        <v>1.019592364173738</v>
       </c>
       <c r="N23">
-        <v>1.000357913518387</v>
+        <v>1.01101857796621</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9664585693766302</v>
+        <v>1.015594156298629</v>
       </c>
       <c r="D24">
-        <v>0.992528731010535</v>
+        <v>1.021997054021466</v>
       </c>
       <c r="E24">
-        <v>0.9786781440558378</v>
+        <v>1.017303885642032</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034193376513281</v>
+        <v>1.026928980652009</v>
       </c>
       <c r="J24">
-        <v>0.9953118372917917</v>
+        <v>1.021924171191776</v>
       </c>
       <c r="K24">
-        <v>1.006688333287044</v>
+        <v>1.025416719615761</v>
       </c>
       <c r="L24">
-        <v>0.9930903357439175</v>
+        <v>1.02074051370153</v>
       </c>
       <c r="N24">
-        <v>1.002484582320413</v>
+        <v>1.01139878889828</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9770231069732613</v>
+        <v>1.01754718773915</v>
       </c>
       <c r="D25">
-        <v>1.000468896804578</v>
+        <v>1.023462170638335</v>
       </c>
       <c r="E25">
-        <v>0.987131927631139</v>
+        <v>1.018962608983072</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037422107415792</v>
+        <v>1.027328533575969</v>
       </c>
       <c r="J25">
-        <v>1.002349273469126</v>
+        <v>1.02325216590784</v>
       </c>
       <c r="K25">
-        <v>1.013059938112418</v>
+        <v>1.026553985818026</v>
       </c>
       <c r="L25">
-        <v>0.9999333433606086</v>
+        <v>1.022069010905691</v>
       </c>
       <c r="N25">
-        <v>1.004819242500486</v>
+        <v>1.011837954880379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_183/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_183/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019102109518226</v>
+        <v>0.9850350842041201</v>
       </c>
       <c r="D2">
-        <v>1.024626414001997</v>
+        <v>1.006493338699001</v>
       </c>
       <c r="E2">
-        <v>1.020284784967306</v>
+        <v>0.9935729121705076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027638643975003</v>
+        <v>1.039811778957977</v>
       </c>
       <c r="J2">
-        <v>1.024306778841953</v>
+        <v>1.007672795896532</v>
       </c>
       <c r="K2">
-        <v>1.027454363206155</v>
+        <v>1.017862946206405</v>
       </c>
       <c r="L2">
-        <v>1.023125524464673</v>
+        <v>1.005122518736831</v>
       </c>
       <c r="N2">
-        <v>1.012186590035529</v>
+        <v>1.006585220317111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020229525089141</v>
+        <v>0.990635977388688</v>
       </c>
       <c r="D3">
-        <v>1.025469254231171</v>
+        <v>1.010704303952217</v>
       </c>
       <c r="E3">
-        <v>1.021244341889865</v>
+        <v>0.9980911936859396</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027858840210695</v>
+        <v>1.041446686420086</v>
       </c>
       <c r="J3">
-        <v>1.025069872959936</v>
+        <v>1.011385211510258</v>
       </c>
       <c r="K3">
-        <v>1.02810423740301</v>
+        <v>1.021202029065571</v>
       </c>
       <c r="L3">
-        <v>1.023890866851306</v>
+        <v>1.008748556448881</v>
       </c>
       <c r="N3">
-        <v>1.012438781994684</v>
+        <v>1.007816624609711</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020958311289886</v>
+        <v>0.9941669496302611</v>
       </c>
       <c r="D4">
-        <v>1.026013471865299</v>
+        <v>1.013358149728329</v>
       </c>
       <c r="E4">
-        <v>1.02186503089431</v>
+        <v>1.000946408404323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027999021287577</v>
+        <v>1.04246039907331</v>
       </c>
       <c r="J4">
-        <v>1.025562425080397</v>
+        <v>1.013721051597338</v>
       </c>
       <c r="K4">
-        <v>1.028522956605283</v>
+        <v>1.023297983298691</v>
       </c>
       <c r="L4">
-        <v>1.024385275011612</v>
+        <v>1.01103342451556</v>
       </c>
       <c r="N4">
-        <v>1.012601529762549</v>
+        <v>1.008591344739814</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021264520241685</v>
+        <v>0.9956300245884523</v>
       </c>
       <c r="D5">
-        <v>1.026241984146324</v>
+        <v>1.014457483507143</v>
       </c>
       <c r="E5">
-        <v>1.022125918980891</v>
+        <v>1.002131036092872</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028057402484114</v>
+        <v>1.042876286295058</v>
       </c>
       <c r="J5">
-        <v>1.025769202150844</v>
+        <v>1.01468776444218</v>
       </c>
       <c r="K5">
-        <v>1.028698557038836</v>
+        <v>1.024164190187919</v>
       </c>
       <c r="L5">
-        <v>1.024592928358285</v>
+        <v>1.011979852850514</v>
       </c>
       <c r="N5">
-        <v>1.012669844353428</v>
+        <v>1.008911950045395</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021315923978235</v>
+        <v>0.9958744563788883</v>
       </c>
       <c r="D6">
-        <v>1.026280336131621</v>
+        <v>1.014641125915805</v>
       </c>
       <c r="E6">
-        <v>1.022169720341388</v>
+        <v>1.002329038181513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028067172632381</v>
+        <v>1.042945521248335</v>
       </c>
       <c r="J6">
-        <v>1.025803903829072</v>
+        <v>1.0148492010302</v>
       </c>
       <c r="K6">
-        <v>1.028728015962949</v>
+        <v>1.024308769728237</v>
       </c>
       <c r="L6">
-        <v>1.024627782794602</v>
+        <v>1.012137949736293</v>
       </c>
       <c r="N6">
-        <v>1.012681308545096</v>
+        <v>1.00896548833129</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020962403546163</v>
+        <v>0.9941865819575004</v>
       </c>
       <c r="D7">
-        <v>1.026016526345293</v>
+        <v>1.013372902482134</v>
       </c>
       <c r="E7">
-        <v>1.021868517088079</v>
+        <v>1.000962298304615</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027999803544985</v>
+        <v>1.042465996180107</v>
       </c>
       <c r="J7">
-        <v>1.025565189191983</v>
+        <v>1.013734028103611</v>
       </c>
       <c r="K7">
-        <v>1.028525304672949</v>
+        <v>1.023309615573637</v>
       </c>
       <c r="L7">
-        <v>1.024388050454918</v>
+        <v>1.01104612552649</v>
       </c>
       <c r="N7">
-        <v>1.012602442996212</v>
+        <v>1.008595648417996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019483276215139</v>
+        <v>0.9869478253893167</v>
       </c>
       <c r="D8">
-        <v>1.024911495253439</v>
+        <v>1.007931537995388</v>
       </c>
       <c r="E8">
-        <v>1.020609115101198</v>
+        <v>0.9951144722818159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027713536590511</v>
+        <v>1.040373638608434</v>
       </c>
       <c r="J8">
-        <v>1.024564923105443</v>
+        <v>1.008941539278454</v>
       </c>
       <c r="K8">
-        <v>1.027674362520364</v>
+        <v>1.019005132804394</v>
       </c>
       <c r="L8">
-        <v>1.023384345417709</v>
+        <v>1.006361030371878</v>
       </c>
       <c r="N8">
-        <v>1.012271910106137</v>
+        <v>1.007006075234016</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016871237349404</v>
+        <v>0.9734318097503099</v>
       </c>
       <c r="D9">
-        <v>1.022955430374831</v>
+        <v>0.9977689841365337</v>
       </c>
       <c r="E9">
-        <v>1.018388274543187</v>
+        <v>0.9842531944633194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027191483642956</v>
+        <v>1.03633367911188</v>
       </c>
       <c r="J9">
-        <v>1.022792956422812</v>
+        <v>0.999958950127173</v>
       </c>
       <c r="K9">
-        <v>1.026161156772768</v>
+        <v>1.010898362022006</v>
       </c>
       <c r="L9">
-        <v>1.021609395075031</v>
+        <v>0.997607025889971</v>
       </c>
       <c r="N9">
-        <v>1.011686114059901</v>
+        <v>1.004026261453617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015126007925561</v>
+        <v>0.9638384296344052</v>
       </c>
       <c r="D10">
-        <v>1.021645422496597</v>
+        <v>0.9905607835537862</v>
       </c>
       <c r="E10">
-        <v>1.016906602288602</v>
+        <v>0.9765883067808675</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026831611154439</v>
+        <v>1.033380787391605</v>
       </c>
       <c r="J10">
-        <v>1.021605313418894</v>
+        <v>0.993564054295505</v>
       </c>
       <c r="K10">
-        <v>1.025143104676516</v>
+        <v>1.00510258337421</v>
       </c>
       <c r="L10">
-        <v>1.020421835728536</v>
+        <v>0.9913935359166011</v>
       </c>
       <c r="N10">
-        <v>1.011293318474671</v>
+        <v>1.001904760348487</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014369365908703</v>
+        <v>0.9595282189188439</v>
       </c>
       <c r="D11">
-        <v>1.021076756583766</v>
+        <v>0.987325022972828</v>
       </c>
       <c r="E11">
-        <v>1.016264750864665</v>
+        <v>0.9731562999045592</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026672975108853</v>
+        <v>1.032034991488869</v>
       </c>
       <c r="J11">
-        <v>1.021089540765051</v>
+        <v>0.9906872808923957</v>
       </c>
       <c r="K11">
-        <v>1.024700079286251</v>
+        <v>1.002489995854099</v>
       </c>
       <c r="L11">
-        <v>1.019906592006171</v>
+        <v>0.9886028479767014</v>
       </c>
       <c r="N11">
-        <v>1.011122693996241</v>
+        <v>1.000950416779686</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014088171326678</v>
+        <v>0.9579020378367168</v>
       </c>
       <c r="D12">
-        <v>1.020865314385518</v>
+        <v>0.9861047896853368</v>
       </c>
       <c r="E12">
-        <v>1.016026296214914</v>
+        <v>0.9718633349804554</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026613628535422</v>
+        <v>1.031524480347046</v>
       </c>
       <c r="J12">
-        <v>1.020897731320956</v>
+        <v>0.9896014607602389</v>
       </c>
       <c r="K12">
-        <v>1.02453518859487</v>
+        <v>1.001503131237546</v>
       </c>
       <c r="L12">
-        <v>1.019715053158203</v>
+        <v>0.98755019854035</v>
       </c>
       <c r="N12">
-        <v>1.011059234873245</v>
+        <v>1.000590213702088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014148495068179</v>
+        <v>0.9582520277731641</v>
       </c>
       <c r="D13">
-        <v>1.020910679162257</v>
+        <v>0.9863673823170805</v>
       </c>
       <c r="E13">
-        <v>1.016077447480054</v>
+        <v>0.9721415224971433</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026626377678437</v>
+        <v>1.031634476490451</v>
       </c>
       <c r="J13">
-        <v>1.020938885452387</v>
+        <v>0.989835172182667</v>
       </c>
       <c r="K13">
-        <v>1.024570573209667</v>
+        <v>1.001715577148807</v>
       </c>
       <c r="L13">
-        <v>1.01975614588974</v>
+        <v>0.9877767395951215</v>
       </c>
       <c r="N13">
-        <v>1.011072850767039</v>
+        <v>1.000667743214405</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014346125226402</v>
+        <v>0.9593943223567747</v>
       </c>
       <c r="D14">
-        <v>1.021059283081168</v>
+        <v>0.987224538817714</v>
       </c>
       <c r="E14">
-        <v>1.016245040999359</v>
+        <v>0.973049800790359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026668078113452</v>
+        <v>1.031993012424394</v>
       </c>
       <c r="J14">
-        <v>1.021073690403167</v>
+        <v>0.9905978852905971</v>
       </c>
       <c r="K14">
-        <v>1.024686456132337</v>
+        <v>1.002408762441759</v>
       </c>
       <c r="L14">
-        <v>1.019890762499063</v>
+        <v>0.9885161695176946</v>
       </c>
       <c r="N14">
-        <v>1.011117450111343</v>
+        <v>1.00092076106307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014467872544728</v>
+        <v>0.9600947376414273</v>
       </c>
       <c r="D15">
-        <v>1.021150814442062</v>
+        <v>0.9877501974543267</v>
       </c>
       <c r="E15">
-        <v>1.016348295249737</v>
+        <v>0.9736069768626483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026693715195065</v>
+        <v>1.032212493921149</v>
       </c>
       <c r="J15">
-        <v>1.021156717876356</v>
+        <v>0.9910654973056778</v>
       </c>
       <c r="K15">
-        <v>1.024757811505323</v>
+        <v>1.002833648871862</v>
       </c>
       <c r="L15">
-        <v>1.019973683754602</v>
+        <v>0.9889695962895478</v>
       </c>
       <c r="N15">
-        <v>1.011144918419505</v>
+        <v>1.001075885033122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015176203668229</v>
+        <v>0.9641210508921656</v>
       </c>
       <c r="D16">
-        <v>1.021683132944284</v>
+        <v>0.9907730237343071</v>
       </c>
       <c r="E16">
-        <v>1.016949193942022</v>
+        <v>0.9768135976205237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026842080119871</v>
+        <v>1.033468644007334</v>
       </c>
       <c r="J16">
-        <v>1.021639511551934</v>
+        <v>0.993752617138966</v>
       </c>
       <c r="K16">
-        <v>1.025172460374958</v>
+        <v>1.005273722530001</v>
       </c>
       <c r="L16">
-        <v>1.020456009147723</v>
+        <v>0.9915765495121965</v>
       </c>
       <c r="N16">
-        <v>1.011304630831031</v>
+        <v>1.001967315220185</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015620266421239</v>
+        <v>0.9666036737394096</v>
       </c>
       <c r="D17">
-        <v>1.02201666076676</v>
+        <v>0.9926377355656142</v>
       </c>
       <c r="E17">
-        <v>1.017326046980078</v>
+        <v>0.9787939587139869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026934393447652</v>
+        <v>1.034238250311297</v>
       </c>
       <c r="J17">
-        <v>1.021941948964639</v>
+        <v>0.9954086060646432</v>
       </c>
       <c r="K17">
-        <v>1.02543196874615</v>
+        <v>1.0067760952159</v>
       </c>
       <c r="L17">
-        <v>1.020758284803533</v>
+        <v>0.9931843117042732</v>
       </c>
       <c r="N17">
-        <v>1.011404669080987</v>
+        <v>1.002516685240707</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015879189549798</v>
+        <v>0.9680367971076366</v>
       </c>
       <c r="D18">
-        <v>1.022211064551961</v>
+        <v>0.99371441757081</v>
       </c>
       <c r="E18">
-        <v>1.017545832252202</v>
+        <v>0.9799382464722282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026987967239525</v>
+        <v>1.03468070570577</v>
       </c>
       <c r="J18">
-        <v>1.022118209434547</v>
+        <v>0.9963641985109708</v>
       </c>
       <c r="K18">
-        <v>1.025583123150602</v>
+        <v>1.007642537635852</v>
       </c>
       <c r="L18">
-        <v>1.020934498455427</v>
+        <v>0.9941124968213929</v>
       </c>
       <c r="N18">
-        <v>1.011462967480086</v>
+        <v>1.002833702468241</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01596746024019</v>
+        <v>0.9685229687833686</v>
       </c>
       <c r="D19">
-        <v>1.022277327934847</v>
+        <v>0.9940797093305285</v>
       </c>
       <c r="E19">
-        <v>1.017620768839136</v>
+        <v>0.980326617207507</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027006188552247</v>
+        <v>1.034830494024525</v>
       </c>
       <c r="J19">
-        <v>1.022178284934623</v>
+        <v>0.996688311641042</v>
       </c>
       <c r="K19">
-        <v>1.025634626877875</v>
+        <v>1.00793632638887</v>
       </c>
       <c r="L19">
-        <v>1.020994566050902</v>
+        <v>0.9944273855142552</v>
       </c>
       <c r="N19">
-        <v>1.01148283687796</v>
+        <v>1.002941227005338</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015572632133119</v>
+        <v>0.966338869810228</v>
       </c>
       <c r="D20">
-        <v>1.021980890597651</v>
+        <v>0.9924388123405662</v>
       </c>
       <c r="E20">
-        <v>1.017285616985508</v>
+        <v>0.9785826123877598</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026924517133547</v>
+        <v>1.034156348935768</v>
       </c>
       <c r="J20">
-        <v>1.021909515415958</v>
+        <v>0.995232008769494</v>
       </c>
       <c r="K20">
-        <v>1.025404147930662</v>
+        <v>1.006615932010324</v>
       </c>
       <c r="L20">
-        <v>1.020725863692647</v>
+        <v>0.9930128135171069</v>
       </c>
       <c r="N20">
-        <v>1.011393941326604</v>
+        <v>1.00245809931748</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014287932062354</v>
+        <v>0.9590586546383605</v>
       </c>
       <c r="D21">
-        <v>1.021015528851882</v>
+        <v>0.9869726430218376</v>
       </c>
       <c r="E21">
-        <v>1.016195690063099</v>
+        <v>0.9727828469375284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026655810026954</v>
+        <v>1.031887730279601</v>
       </c>
       <c r="J21">
-        <v>1.021034000020107</v>
+        <v>0.9903737708313147</v>
       </c>
       <c r="K21">
-        <v>1.02465234065046</v>
+        <v>1.002205098479245</v>
       </c>
       <c r="L21">
-        <v>1.019851125530745</v>
+        <v>0.9882988778603048</v>
       </c>
       <c r="N21">
-        <v>1.011104318970547</v>
+        <v>1.000846414428866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013479355771098</v>
+        <v>0.9543346556301354</v>
       </c>
       <c r="D22">
-        <v>1.020407327162554</v>
+        <v>0.9834291743322704</v>
       </c>
       <c r="E22">
-        <v>1.015510163746761</v>
+        <v>0.9690305401349942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026484421113991</v>
+        <v>1.030399599499879</v>
       </c>
       <c r="J22">
-        <v>1.020482206189651</v>
+        <v>0.9872187433472996</v>
       </c>
       <c r="K22">
-        <v>1.024177732309568</v>
+        <v>0.9993362084347032</v>
       </c>
       <c r="L22">
-        <v>1.019300249309252</v>
+        <v>0.9852415272080056</v>
       </c>
       <c r="N22">
-        <v>1.010921749688158</v>
+        <v>0.9997998058359523</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013908077089011</v>
+        <v>0.956853452018453</v>
       </c>
       <c r="D23">
-        <v>1.020729864118113</v>
+        <v>0.9853181463759321</v>
       </c>
       <c r="E23">
-        <v>1.015873597791345</v>
+        <v>0.9710301579035571</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026575509131655</v>
+        <v>1.031194530687974</v>
       </c>
       <c r="J23">
-        <v>1.020774848188867</v>
+        <v>0.9889011911652462</v>
       </c>
       <c r="K23">
-        <v>1.02442951307544</v>
+        <v>1.000866471395573</v>
       </c>
       <c r="L23">
-        <v>1.019592364173738</v>
+        <v>0.9868715134054642</v>
       </c>
       <c r="N23">
-        <v>1.01101857796621</v>
+        <v>1.000357913518387</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015594156298629</v>
+        <v>0.9664585693766303</v>
       </c>
       <c r="D24">
-        <v>1.021997054021466</v>
+        <v>0.9925287310105346</v>
       </c>
       <c r="E24">
-        <v>1.017303885642032</v>
+        <v>0.9786781440558376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026928980652009</v>
+        <v>1.034193376513281</v>
       </c>
       <c r="J24">
-        <v>1.021924171191776</v>
+        <v>0.9953118372917916</v>
       </c>
       <c r="K24">
-        <v>1.025416719615761</v>
+        <v>1.006688333287043</v>
       </c>
       <c r="L24">
-        <v>1.02074051370153</v>
+        <v>0.9930903357439174</v>
       </c>
       <c r="N24">
-        <v>1.01139878889828</v>
+        <v>1.002484582320413</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01754718773915</v>
+        <v>0.9770231069732603</v>
       </c>
       <c r="D25">
-        <v>1.023462170638335</v>
+        <v>1.000468896804577</v>
       </c>
       <c r="E25">
-        <v>1.018962608983072</v>
+        <v>0.9871319276311378</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027328533575969</v>
+        <v>1.037422107415791</v>
       </c>
       <c r="J25">
-        <v>1.02325216590784</v>
+        <v>1.002349273469125</v>
       </c>
       <c r="K25">
-        <v>1.026553985818026</v>
+        <v>1.013059938112417</v>
       </c>
       <c r="L25">
-        <v>1.022069010905691</v>
+        <v>0.9999333433606075</v>
       </c>
       <c r="N25">
-        <v>1.011837954880379</v>
+        <v>1.004819242500486</v>
       </c>
     </row>
   </sheetData>
